--- a/tests/gait/data/manual_gait_turn_results_vcwt.xlsx
+++ b/tests/gait/data/manual_gait_turn_results_vcwt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukasadamowicz/Documents/Packages/scikit-digital-health/tests/gait/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F58CCF6-FF3D-944D-BE36-210A2AD0E814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2A07A5-2864-094F-8642-023D4E5602DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="500" windowWidth="48980" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23600" yWindow="1100" windowWidth="48980" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -690,7 +690,7 @@
         <v>3</v>
       </c>
       <c r="K2">
-        <v>6.9653348626577224E-2</v>
+        <v>6.965334862657778E-2</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -764,27 +764,27 @@
       </c>
       <c r="AD2">
         <f>2*SQRT(2 * M2 * K2 - K2 * K2)</f>
-        <v>0.73199345398206284</v>
+        <v>0.73199345398206561</v>
       </c>
       <c r="AE2">
         <f>AD3-AD2</f>
-        <v>8.8260287833861417E-2</v>
+        <v>8.8260287833860751E-2</v>
       </c>
       <c r="AF2">
         <f>AD3+AD2</f>
-        <v>1.5522471957979871</v>
+        <v>1.552247195797992</v>
       </c>
       <c r="AG2">
         <f>AF3-AF2</f>
-        <v>5.5055958699856911E-2</v>
+        <v>5.5055958699856244E-2</v>
       </c>
       <c r="AH2">
         <f>AF2/P2</f>
-        <v>1.3154637252525314</v>
+        <v>1.3154637252525356</v>
       </c>
       <c r="AI2">
         <f>AH3-AH2</f>
-        <v>0.14572096065459927</v>
+        <v>0.14572096065459905</v>
       </c>
       <c r="AJ2">
         <f>60/N2</f>
@@ -825,7 +825,7 @@
         <v>3</v>
       </c>
       <c r="K3">
-        <v>8.8320207383049534E-2</v>
+        <v>8.832020738305002E-2</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -899,27 +899,27 @@
       </c>
       <c r="AD3">
         <f t="shared" ref="AD3:AD58" si="18">2*SQRT(2 * M3 * K3 - K3 * K3)</f>
-        <v>0.82025374181592425</v>
+        <v>0.82025374181592636</v>
       </c>
       <c r="AE3">
         <f t="shared" ref="AE3:AE57" si="19">AD4-AD3</f>
-        <v>-3.3204329134004507E-2</v>
+        <v>-3.3204329134004618E-2</v>
       </c>
       <c r="AF3">
         <f t="shared" ref="AF3:AF57" si="20">AD4+AD3</f>
-        <v>1.607303154497844</v>
+        <v>1.6073031544978482</v>
       </c>
       <c r="AG3">
         <f t="shared" ref="AG3:AG56" si="21">AF4-AF3</f>
-        <v>-4.5932723484455318E-2</v>
+        <v>-4.593272348445554E-2</v>
       </c>
       <c r="AH3">
         <f t="shared" ref="AH3:AH57" si="22">AF3/P3</f>
-        <v>1.4611846859071307</v>
+        <v>1.4611846859071347</v>
       </c>
       <c r="AI3">
         <f t="shared" ref="AI3:AI56" si="23">AH4-AH3</f>
-        <v>1.1806286747009453E-2</v>
+        <v>1.1806286747009231E-2</v>
       </c>
       <c r="AJ3">
         <f t="shared" ref="AJ3:AJ58" si="24">60/N3</f>
@@ -960,7 +960,7 @@
         <v>3</v>
       </c>
       <c r="K4">
-        <v>8.1003219636828036E-2</v>
+        <v>8.100321963682848E-2</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1034,15 +1034,15 @@
       </c>
       <c r="AD4">
         <f t="shared" si="18"/>
-        <v>0.78704941268191975</v>
+        <v>0.78704941268192175</v>
       </c>
       <c r="AE4">
         <f t="shared" si="19"/>
-        <v>-1.27283943504507E-2</v>
+        <v>-1.2728394350450922E-2</v>
       </c>
       <c r="AF4">
         <f t="shared" si="20"/>
-        <v>1.5613704310133887</v>
+        <v>1.5613704310133927</v>
       </c>
       <c r="AG4">
         <f t="shared" si="21"/>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="AH4">
         <f t="shared" si="22"/>
-        <v>1.4729909726541401</v>
+        <v>1.4729909726541439</v>
       </c>
       <c r="AI4">
         <f t="shared" si="23"/>
@@ -1095,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="K5">
-        <v>7.8293415695906685E-2</v>
+        <v>7.8293415695907073E-2</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1169,27 +1169,27 @@
       </c>
       <c r="AD5">
         <f t="shared" si="18"/>
-        <v>0.77432101833146905</v>
+        <v>0.77432101833147082</v>
       </c>
       <c r="AE5">
         <f t="shared" si="19"/>
-        <v>-1.1979181878440714E-2</v>
+        <v>-1.197918187844027E-2</v>
       </c>
       <c r="AF5">
         <f t="shared" si="20"/>
-        <v>1.5366628547844974</v>
+        <v>1.5366628547845014</v>
       </c>
       <c r="AG5">
         <f t="shared" si="21"/>
-        <v>-1.9381265275117743E-2</v>
+        <v>-1.9381265275117299E-2</v>
       </c>
       <c r="AH5">
         <f t="shared" si="22"/>
-        <v>1.4228359766523122</v>
+        <v>1.422835976652316</v>
       </c>
       <c r="AI5">
         <f t="shared" si="23"/>
-        <v>-4.3489077098330942E-2</v>
+        <v>-4.3489077098330498E-2</v>
       </c>
       <c r="AJ5">
         <f t="shared" si="24"/>
@@ -1230,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="K6">
-        <v>7.5790587111800145E-2</v>
+        <v>7.5790587111800589E-2</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1304,27 +1304,27 @@
       </c>
       <c r="AD6">
         <f t="shared" si="18"/>
-        <v>0.76234183645302833</v>
+        <v>0.76234183645303055</v>
       </c>
       <c r="AE6">
         <f t="shared" si="19"/>
-        <v>-7.4020833966770283E-3</v>
+        <v>-7.4020833966771393E-3</v>
       </c>
       <c r="AF6">
         <f t="shared" si="20"/>
-        <v>1.5172815895093796</v>
+        <v>1.5172815895093841</v>
       </c>
       <c r="AG6">
         <f t="shared" si="21"/>
-        <v>7.6334717650299089E-2</v>
+        <v>7.6334717650298645E-2</v>
       </c>
       <c r="AH6">
         <f t="shared" si="22"/>
-        <v>1.3793468995539813</v>
+        <v>1.3793468995539855</v>
       </c>
       <c r="AI6">
         <f t="shared" si="23"/>
-        <v>6.9395197863908464E-2</v>
+        <v>6.9395197863907798E-2</v>
       </c>
       <c r="AJ6">
         <f t="shared" si="24"/>
@@ -1365,7 +1365,7 @@
         <v>3</v>
       </c>
       <c r="K7">
-        <v>7.4266900976977301E-2</v>
+        <v>7.4266900976977718E-2</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1439,23 +1439,23 @@
       </c>
       <c r="AD7">
         <f t="shared" si="18"/>
-        <v>0.7549397530563513</v>
+        <v>0.75493975305635341</v>
       </c>
       <c r="AE7">
         <f t="shared" si="19"/>
-        <v>8.3736801046976117E-2</v>
+        <v>8.3736801046975895E-2</v>
       </c>
       <c r="AF7">
         <f t="shared" si="20"/>
-        <v>1.5936163071596787</v>
+        <v>1.5936163071596827</v>
       </c>
       <c r="AG7">
         <f t="shared" si="21"/>
-        <v>-8.0752010363893678E-3</v>
+        <v>-8.0752010363891458E-3</v>
       </c>
       <c r="AH7">
         <f t="shared" si="22"/>
-        <v>1.4487420974178897</v>
+        <v>1.4487420974178933</v>
       </c>
       <c r="AI7">
         <f t="shared" si="23"/>
@@ -1500,7 +1500,7 @@
         <v>3</v>
       </c>
       <c r="K8">
-        <v>9.2536974204972727E-2</v>
+        <v>9.2536974204973185E-2</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -1574,27 +1574,27 @@
       </c>
       <c r="AD8">
         <f t="shared" si="18"/>
-        <v>0.83867655410332742</v>
+        <v>0.83867655410332931</v>
       </c>
       <c r="AE8">
         <f t="shared" si="19"/>
-        <v>-9.1812002083365596E-2</v>
+        <v>-9.1812002083365041E-2</v>
       </c>
       <c r="AF8">
         <f t="shared" si="20"/>
-        <v>1.5855411061232894</v>
+        <v>1.5855411061232936</v>
       </c>
       <c r="AG8">
         <f t="shared" si="21"/>
-        <v>-0.23594967822825086</v>
+        <v>-0.23594967822825352</v>
       </c>
       <c r="AH8">
         <f t="shared" si="22"/>
-        <v>1.3668457811407668</v>
+        <v>1.3668457811407704</v>
       </c>
       <c r="AI8">
         <f t="shared" si="23"/>
-        <v>-0.22312423207717491</v>
+        <v>-0.22312423207717713</v>
       </c>
       <c r="AJ8">
         <f t="shared" si="24"/>
@@ -1635,7 +1635,7 @@
         <v>3</v>
       </c>
       <c r="K9">
-        <v>7.2624434597880552E-2</v>
+        <v>7.2624434597881066E-2</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -1709,27 +1709,27 @@
       </c>
       <c r="AD9">
         <f t="shared" si="18"/>
-        <v>0.74686455201996182</v>
+        <v>0.74686455201996427</v>
       </c>
       <c r="AE9">
         <f t="shared" si="19"/>
-        <v>-0.14413767614488515</v>
+        <v>-0.14413767614488848</v>
       </c>
       <c r="AF9">
         <f t="shared" si="20"/>
-        <v>1.3495914278950385</v>
+        <v>1.3495914278950401</v>
       </c>
       <c r="AG9">
         <f t="shared" si="21"/>
-        <v>-0.15181674864938333</v>
+        <v>-0.15181674864938177</v>
       </c>
       <c r="AH9">
         <f t="shared" si="22"/>
-        <v>1.1437215490635919</v>
+        <v>1.1437215490635932</v>
       </c>
       <c r="AI9">
         <f t="shared" si="23"/>
-        <v>-0.128658261567274</v>
+        <v>-0.12865826156727267</v>
       </c>
       <c r="AJ9">
         <f t="shared" si="24"/>
@@ -1770,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="K10">
-        <v>4.6666859441839063E-2</v>
+        <v>4.6666859441838918E-2</v>
       </c>
       <c r="L10">
         <v>2</v>
@@ -1844,27 +1844,27 @@
       </c>
       <c r="AD10">
         <f t="shared" si="18"/>
-        <v>0.60272687587507667</v>
+        <v>0.60272687587507578</v>
       </c>
       <c r="AE10">
         <f t="shared" si="19"/>
-        <v>-7.6790725044980634E-3</v>
+        <v>-7.6790725044934005E-3</v>
       </c>
       <c r="AF10">
         <f t="shared" si="20"/>
-        <v>1.1977746792456552</v>
+        <v>1.1977746792456583</v>
       </c>
       <c r="AG10">
         <f t="shared" si="21"/>
-        <v>2.5703001830190253E-2</v>
+        <v>2.5703001830193362E-2</v>
       </c>
       <c r="AH10">
         <f t="shared" si="22"/>
-        <v>1.0150632874963179</v>
+        <v>1.0150632874963206</v>
       </c>
       <c r="AI10">
         <f t="shared" si="23"/>
-        <v>5.8162748535125486E-2</v>
+        <v>5.8162748535128372E-2</v>
       </c>
       <c r="AJ10">
         <f t="shared" si="24"/>
@@ -1905,7 +1905,7 @@
         <v>3</v>
       </c>
       <c r="K11">
-        <v>4.5457053275033597E-2</v>
+        <v>4.5457053275034187E-2</v>
       </c>
       <c r="L11">
         <v>2</v>
@@ -1979,27 +1979,27 @@
       </c>
       <c r="AD11">
         <f t="shared" si="18"/>
-        <v>0.59504780337057861</v>
+        <v>0.59504780337058238</v>
       </c>
       <c r="AE11">
         <f t="shared" si="19"/>
-        <v>3.3382074334688205E-2</v>
+        <v>3.3382074334686762E-2</v>
       </c>
       <c r="AF11">
         <f t="shared" si="20"/>
-        <v>1.2234776810758454</v>
+        <v>1.2234776810758516</v>
       </c>
       <c r="AG11">
         <f t="shared" si="21"/>
-        <v>0.26845459322243315</v>
+        <v>0.26845459322243093</v>
       </c>
       <c r="AH11">
         <f t="shared" si="22"/>
-        <v>1.0732260360314434</v>
+        <v>1.0732260360314489</v>
       </c>
       <c r="AI11">
         <f t="shared" si="23"/>
-        <v>0.30819273646696255</v>
+        <v>0.30819273646696077</v>
       </c>
       <c r="AJ11">
         <f t="shared" si="24"/>
@@ -2040,7 +2040,7 @@
         <v>3</v>
       </c>
       <c r="K12">
-        <v>5.084094198096973E-2</v>
+        <v>5.0840941980970118E-2</v>
       </c>
       <c r="L12">
         <v>2</v>
@@ -2114,27 +2114,27 @@
       </c>
       <c r="AD12">
         <f t="shared" si="18"/>
-        <v>0.62842987770526682</v>
+        <v>0.62842987770526915</v>
       </c>
       <c r="AE12">
         <f t="shared" si="19"/>
-        <v>0.23507251888774483</v>
+        <v>0.23507251888774416</v>
       </c>
       <c r="AF12">
         <f t="shared" si="20"/>
-        <v>1.4919322742982786</v>
+        <v>1.4919322742982826</v>
       </c>
       <c r="AG12">
         <f t="shared" si="21"/>
-        <v>0.15577450460095377</v>
+        <v>0.15577450460095332</v>
       </c>
       <c r="AH12">
         <f t="shared" si="22"/>
-        <v>1.3814187724984059</v>
+        <v>1.3814187724984097</v>
       </c>
       <c r="AI12">
         <f t="shared" si="23"/>
-        <v>0.11649648104635069</v>
+        <v>0.11649648104635002</v>
       </c>
       <c r="AJ12">
         <f t="shared" si="24"/>
@@ -2175,7 +2175,7 @@
         <v>3</v>
       </c>
       <c r="K13">
-        <v>9.8400076408950182E-2</v>
+        <v>9.8400076408950585E-2</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -2249,15 +2249,15 @@
       </c>
       <c r="AD13">
         <f t="shared" si="18"/>
-        <v>0.86350239659301165</v>
+        <v>0.86350239659301331</v>
       </c>
       <c r="AE13">
         <f t="shared" si="19"/>
-        <v>-7.9298014286790952E-2</v>
+        <v>-7.929801428679073E-2</v>
       </c>
       <c r="AF13">
         <f t="shared" si="20"/>
-        <v>1.6477067788992323</v>
+        <v>1.6477067788992359</v>
       </c>
       <c r="AG13">
         <f t="shared" si="21"/>
@@ -2265,11 +2265,11 @@
       </c>
       <c r="AH13">
         <f t="shared" si="22"/>
-        <v>1.4979152535447566</v>
+        <v>1.4979152535447597</v>
       </c>
       <c r="AI13">
         <f t="shared" si="23"/>
-        <v>-1.4745202697447279E-2</v>
+        <v>-1.4745202697447057E-2</v>
       </c>
       <c r="AJ13">
         <f t="shared" si="24"/>
@@ -2310,7 +2310,7 @@
         <v>3</v>
       </c>
       <c r="K14">
-        <v>8.0392995827581165E-2</v>
+        <v>8.0392995827581595E-2</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -2384,15 +2384,15 @@
       </c>
       <c r="AD14">
         <f t="shared" si="18"/>
-        <v>0.78420438230622069</v>
+        <v>0.78420438230622258</v>
       </c>
       <c r="AE14">
         <f t="shared" si="19"/>
-        <v>3.3414890302652878E-2</v>
+        <v>3.3414890302652434E-2</v>
       </c>
       <c r="AF14">
         <f t="shared" si="20"/>
-        <v>1.6018236549150942</v>
+        <v>1.6018236549150977</v>
       </c>
       <c r="AG14">
         <f t="shared" si="21"/>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="AH14">
         <f t="shared" si="22"/>
-        <v>1.4831700508473094</v>
+        <v>1.4831700508473127</v>
       </c>
       <c r="AI14">
         <f t="shared" si="23"/>
@@ -2445,7 +2445,7 @@
         <v>3</v>
       </c>
       <c r="K15">
-        <v>8.7726438557479469E-2</v>
+        <v>8.7726438557479802E-2</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -2519,15 +2519,15 @@
       </c>
       <c r="AD15">
         <f t="shared" si="18"/>
-        <v>0.81761927260887357</v>
+        <v>0.81761927260887501</v>
       </c>
       <c r="AE15">
         <f t="shared" si="19"/>
-        <v>1.3568359847452194E-2</v>
+        <v>1.3568359847452638E-2</v>
       </c>
       <c r="AF15">
         <f t="shared" si="20"/>
-        <v>1.6488069050651992</v>
+        <v>1.6488069050652028</v>
       </c>
       <c r="AG15">
         <f t="shared" si="21"/>
@@ -2535,7 +2535,7 @@
       </c>
       <c r="AH15">
         <f t="shared" si="22"/>
-        <v>1.5554782123256596</v>
+        <v>1.555478212325663</v>
       </c>
       <c r="AI15">
         <f t="shared" si="23"/>
@@ -2580,7 +2580,7 @@
         <v>3</v>
       </c>
       <c r="K16">
-        <v>9.0809176331323488E-2</v>
+        <v>9.080917633132389E-2</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2654,27 +2654,27 @@
       </c>
       <c r="AD16">
         <f t="shared" si="18"/>
-        <v>0.83118763245632576</v>
+        <v>0.83118763245632765</v>
       </c>
       <c r="AE16">
         <f t="shared" si="19"/>
-        <v>3.8918521948311358E-2</v>
+        <v>3.8918521948310913E-2</v>
       </c>
       <c r="AF16">
         <f t="shared" si="20"/>
-        <v>1.7012937868609628</v>
+        <v>1.7012937868609663</v>
       </c>
       <c r="AG16">
         <f t="shared" si="21"/>
-        <v>3.0756471875794E-2</v>
+        <v>3.0756471875793778E-2</v>
       </c>
       <c r="AH16">
         <f t="shared" si="22"/>
-        <v>1.5752720248712617</v>
+        <v>1.5752720248712651</v>
       </c>
       <c r="AI16">
         <f t="shared" si="23"/>
-        <v>-6.8088056511927952E-4</v>
+        <v>-6.8088056511972361E-4</v>
       </c>
       <c r="AJ16">
         <f t="shared" si="24"/>
@@ -2715,7 +2715,7 @@
         <v>3</v>
       </c>
       <c r="K17">
-        <v>9.9995080325418206E-2</v>
+        <v>9.9995080325418553E-2</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2789,27 +2789,27 @@
       </c>
       <c r="AD17">
         <f t="shared" si="18"/>
-        <v>0.87010615440463712</v>
+        <v>0.87010615440463857</v>
       </c>
       <c r="AE17">
         <f t="shared" si="19"/>
-        <v>-8.1620500725174683E-3</v>
+        <v>-8.1620500725170242E-3</v>
       </c>
       <c r="AF17">
         <f t="shared" si="20"/>
-        <v>1.7320502587367568</v>
+        <v>1.7320502587367601</v>
       </c>
       <c r="AG17">
         <f t="shared" si="21"/>
-        <v>-0.19229235916807963</v>
+        <v>-0.19229235916807941</v>
       </c>
       <c r="AH17">
         <f t="shared" si="22"/>
-        <v>1.5745911443061424</v>
+        <v>1.5745911443061453</v>
       </c>
       <c r="AI17">
         <f t="shared" si="23"/>
-        <v>-0.17481123560734524</v>
+        <v>-0.17481123560734479</v>
       </c>
       <c r="AJ17">
         <f t="shared" si="24"/>
@@ -2850,7 +2850,7 @@
         <v>3</v>
       </c>
       <c r="K18">
-        <v>9.8025885139283994E-2</v>
+        <v>9.8025885139284424E-2</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -2924,27 +2924,27 @@
       </c>
       <c r="AD18">
         <f t="shared" si="18"/>
-        <v>0.86194410433211965</v>
+        <v>0.86194410433212154</v>
       </c>
       <c r="AE18">
         <f t="shared" si="19"/>
-        <v>-0.18413030909556216</v>
+        <v>-0.18413030909556238</v>
       </c>
       <c r="AF18">
         <f t="shared" si="20"/>
-        <v>1.5397578995686771</v>
+        <v>1.5397578995686807</v>
       </c>
       <c r="AG18">
         <f t="shared" si="21"/>
-        <v>-0.17855053611044269</v>
+        <v>-0.17855053611044225</v>
       </c>
       <c r="AH18">
         <f t="shared" si="22"/>
-        <v>1.3997799086987972</v>
+        <v>1.3997799086988005</v>
       </c>
       <c r="AI18">
         <f t="shared" si="23"/>
-        <v>-0.205738361805609</v>
+        <v>-0.20573836180560878</v>
       </c>
       <c r="AJ18">
         <f t="shared" si="24"/>
@@ -2985,7 +2985,7 @@
         <v>2</v>
       </c>
       <c r="K19">
-        <v>5.9407430794270633E-2</v>
+        <v>5.9407430794270938E-2</v>
       </c>
       <c r="L19">
         <v>2</v>
@@ -3059,27 +3059,27 @@
       </c>
       <c r="AD19">
         <f t="shared" si="18"/>
-        <v>0.67781379523655749</v>
+        <v>0.67781379523655916</v>
       </c>
       <c r="AE19">
         <f t="shared" si="19"/>
-        <v>5.5797729851195799E-3</v>
+        <v>5.579772985120246E-3</v>
       </c>
       <c r="AF19">
         <f t="shared" si="20"/>
-        <v>1.3612073634582345</v>
+        <v>1.3612073634582385</v>
       </c>
       <c r="AG19" s="3">
         <f t="shared" si="21"/>
-        <v>-0.67781379523655738</v>
+        <v>-0.67781379523655905</v>
       </c>
       <c r="AH19">
         <f t="shared" si="22"/>
-        <v>1.1940415468931882</v>
+        <v>1.1940415468931918</v>
       </c>
       <c r="AI19" s="3">
         <f t="shared" si="23"/>
-        <v>-1.0328638185390191</v>
+        <v>-1.0328638185390222</v>
       </c>
       <c r="AJ19">
         <f t="shared" si="24"/>
@@ -3120,7 +3120,7 @@
         <v>1</v>
       </c>
       <c r="K20">
-        <v>6.0421224744753629E-2</v>
+        <v>6.042122474475406E-2</v>
       </c>
       <c r="L20">
         <v>2</v>
@@ -3194,27 +3194,27 @@
       </c>
       <c r="AD20">
         <f t="shared" si="18"/>
-        <v>0.68339356822167707</v>
+        <v>0.6833935682216794</v>
       </c>
       <c r="AE20" s="3">
         <f t="shared" si="19"/>
-        <v>-0.68339356822167707</v>
+        <v>-0.6833935682216794</v>
       </c>
       <c r="AF20" s="3">
         <f t="shared" si="20"/>
-        <v>0.68339356822167707</v>
+        <v>0.6833935682216794</v>
       </c>
       <c r="AG20" s="3">
         <f t="shared" si="21"/>
-        <v>3.3631391801753341E-2</v>
+        <v>3.3631391801752786E-2</v>
       </c>
       <c r="AH20" s="3">
         <f t="shared" si="22"/>
-        <v>0.1611777283541691</v>
+        <v>0.16117772835416966</v>
       </c>
       <c r="AI20" s="3">
         <f t="shared" si="23"/>
-        <v>7.9319320287154216E-3</v>
+        <v>7.9319320287152828E-3</v>
       </c>
       <c r="AJ20">
         <f t="shared" si="24"/>
@@ -3330,23 +3330,23 @@
       </c>
       <c r="AE21" s="3">
         <f t="shared" si="19"/>
-        <v>0.71702496002343041</v>
+        <v>0.71702496002343219</v>
       </c>
       <c r="AF21" s="3">
         <f t="shared" si="20"/>
-        <v>0.71702496002343041</v>
+        <v>0.71702496002343219</v>
       </c>
       <c r="AG21" s="3">
         <f t="shared" si="21"/>
-        <v>0.77948620559941584</v>
+        <v>0.77948620559941695</v>
       </c>
       <c r="AH21" s="3">
         <f t="shared" si="22"/>
-        <v>0.16910966038288452</v>
+        <v>0.16910966038288494</v>
       </c>
       <c r="AI21" s="3">
         <f t="shared" si="23"/>
-        <v>1.143619432268735</v>
+        <v>1.1436194322687372</v>
       </c>
       <c r="AJ21" s="3">
         <f t="shared" si="24"/>
@@ -3387,7 +3387,7 @@
         <v>3</v>
       </c>
       <c r="K22">
-        <v>6.6732445615181477E-2</v>
+        <v>6.6732445615181823E-2</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -3461,27 +3461,27 @@
       </c>
       <c r="AD22">
         <f t="shared" si="18"/>
-        <v>0.71702496002343041</v>
+        <v>0.71702496002343219</v>
       </c>
       <c r="AE22">
         <f t="shared" si="19"/>
-        <v>6.2461245575985425E-2</v>
+        <v>6.2461245575984758E-2</v>
       </c>
       <c r="AF22">
         <f t="shared" si="20"/>
-        <v>1.4965111656228463</v>
+        <v>1.4965111656228491</v>
       </c>
       <c r="AG22">
         <f t="shared" si="21"/>
-        <v>0.15198382484252093</v>
+        <v>0.15198382484252004</v>
       </c>
       <c r="AH22">
         <f t="shared" si="22"/>
-        <v>1.3127290926516195</v>
+        <v>1.3127290926516222</v>
       </c>
       <c r="AI22">
         <f t="shared" si="23"/>
-        <v>0.24245486061759469</v>
+        <v>0.24245486061759403</v>
       </c>
       <c r="AJ22">
         <f t="shared" si="24"/>
@@ -3522,7 +3522,7 @@
         <v>3</v>
       </c>
       <c r="K23">
-        <v>7.9386764642921673E-2</v>
+        <v>7.9386764642921936E-2</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -3596,15 +3596,15 @@
       </c>
       <c r="AD23">
         <f t="shared" si="18"/>
-        <v>0.77948620559941584</v>
+        <v>0.77948620559941695</v>
       </c>
       <c r="AE23">
         <f t="shared" si="19"/>
-        <v>8.9522579266535507E-2</v>
+        <v>8.9522579266535396E-2</v>
       </c>
       <c r="AF23">
         <f t="shared" si="20"/>
-        <v>1.6484949904653672</v>
+        <v>1.6484949904653692</v>
       </c>
       <c r="AG23">
         <f t="shared" si="21"/>
@@ -3612,7 +3612,7 @@
       </c>
       <c r="AH23">
         <f t="shared" si="22"/>
-        <v>1.5551839532692142</v>
+        <v>1.5551839532692162</v>
       </c>
       <c r="AI23">
         <f t="shared" si="23"/>
@@ -3657,7 +3657,7 @@
         <v>3</v>
       </c>
       <c r="K24">
-        <v>9.9728994024870538E-2</v>
+        <v>9.9728994024870801E-2</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -3731,23 +3731,23 @@
       </c>
       <c r="AD24">
         <f t="shared" si="18"/>
-        <v>0.86900878486595134</v>
+        <v>0.86900878486595234</v>
       </c>
       <c r="AE24">
         <f t="shared" si="19"/>
-        <v>2.2881172278580997E-2</v>
+        <v>2.2881172278581108E-2</v>
       </c>
       <c r="AF24">
         <f t="shared" si="20"/>
-        <v>1.7608987420104838</v>
+        <v>1.7608987420104858</v>
       </c>
       <c r="AG24">
         <f t="shared" si="21"/>
-        <v>1.6088335268603871E-2</v>
+        <v>1.6088335268604093E-2</v>
       </c>
       <c r="AH24">
         <f t="shared" si="22"/>
-        <v>1.661225228311777</v>
+        <v>1.661225228311779</v>
       </c>
       <c r="AI24">
         <f t="shared" si="23"/>
@@ -3792,7 +3792,7 @@
         <v>3</v>
       </c>
       <c r="K25">
-        <v>0.10536350462723409</v>
+        <v>0.1053635046272344</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -3866,27 +3866,27 @@
       </c>
       <c r="AD25">
         <f t="shared" si="18"/>
-        <v>0.89188995714453234</v>
+        <v>0.89188995714453345</v>
       </c>
       <c r="AE25">
         <f t="shared" si="19"/>
-        <v>-6.7928370099771263E-3</v>
+        <v>-6.7928370099770152E-3</v>
       </c>
       <c r="AF25">
         <f t="shared" si="20"/>
-        <v>1.7769870772790877</v>
+        <v>1.7769870772790899</v>
       </c>
       <c r="AG25">
         <f t="shared" si="21"/>
-        <v>8.4295312454942817E-3</v>
+        <v>8.4295312454947258E-3</v>
       </c>
       <c r="AH25">
         <f t="shared" si="22"/>
-        <v>1.6764029030934788</v>
+        <v>1.6764029030934808</v>
       </c>
       <c r="AI25">
         <f t="shared" si="23"/>
-        <v>7.9523879674474607E-3</v>
+        <v>7.9523879674479048E-3</v>
       </c>
       <c r="AJ25">
         <f t="shared" si="24"/>
@@ -3927,7 +3927,7 @@
         <v>3</v>
       </c>
       <c r="K26">
-        <v>0.1036717479644888</v>
+        <v>0.10367174796448909</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="AD26">
         <f t="shared" si="18"/>
-        <v>0.88509712013455522</v>
+        <v>0.88509712013455644</v>
       </c>
       <c r="AE26">
         <f t="shared" si="19"/>
@@ -4009,19 +4009,19 @@
       </c>
       <c r="AF26">
         <f t="shared" si="20"/>
-        <v>1.7854166085245819</v>
+        <v>1.7854166085245846</v>
       </c>
       <c r="AG26">
         <f t="shared" si="21"/>
-        <v>-0.11122329007566534</v>
+        <v>-0.11122329007566556</v>
       </c>
       <c r="AH26">
         <f t="shared" si="22"/>
-        <v>1.6843552910609263</v>
+        <v>1.6843552910609287</v>
       </c>
       <c r="AI26">
         <f t="shared" si="23"/>
-        <v>-0.18953982816010795</v>
+        <v>-0.18953982816010839</v>
       </c>
       <c r="AJ26">
         <f t="shared" si="24"/>
@@ -4062,7 +4062,7 @@
         <v>3</v>
       </c>
       <c r="K27">
-        <v>0.1074854007800974</v>
+        <v>0.1074854007800977</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -4136,27 +4136,27 @@
       </c>
       <c r="AD27">
         <f t="shared" si="18"/>
-        <v>0.90031948839002685</v>
+        <v>0.90031948839002807</v>
       </c>
       <c r="AE27">
         <f t="shared" si="19"/>
-        <v>-0.12644565833113708</v>
+        <v>-0.12644565833113697</v>
       </c>
       <c r="AF27">
         <f t="shared" si="20"/>
-        <v>1.6741933184489166</v>
+        <v>1.6741933184489191</v>
       </c>
       <c r="AG27">
         <f t="shared" si="21"/>
-        <v>-0.19470225856455947</v>
+        <v>-0.19470225856455858</v>
       </c>
       <c r="AH27">
         <f t="shared" si="22"/>
-        <v>1.4948154629008183</v>
+        <v>1.4948154629008203</v>
       </c>
       <c r="AI27">
         <f t="shared" si="23"/>
-        <v>-0.24100947994797317</v>
+        <v>-0.2410094799479725</v>
       </c>
       <c r="AJ27">
         <f t="shared" si="24"/>
@@ -4197,7 +4197,7 @@
         <v>3</v>
       </c>
       <c r="K28">
-        <v>7.8199159340672258E-2</v>
+        <v>7.819915934067255E-2</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -4271,27 +4271,27 @@
       </c>
       <c r="AD28">
         <f t="shared" si="18"/>
-        <v>0.77387383005888977</v>
+        <v>0.7738738300588911</v>
       </c>
       <c r="AE28">
         <f t="shared" si="19"/>
-        <v>-6.8256600233422393E-2</v>
+        <v>-6.8256600233421838E-2</v>
       </c>
       <c r="AF28">
         <f t="shared" si="20"/>
-        <v>1.4794910598843571</v>
+        <v>1.4794910598843605</v>
       </c>
       <c r="AG28">
         <f t="shared" si="21"/>
-        <v>-0.22441320180989077</v>
+        <v>-0.22441320180989033</v>
       </c>
       <c r="AH28">
         <f t="shared" si="22"/>
-        <v>1.2538059829528452</v>
+        <v>1.2538059829528478</v>
       </c>
       <c r="AI28">
         <f t="shared" si="23"/>
-        <v>-0.20790776789078991</v>
+        <v>-0.20790776789078924</v>
       </c>
       <c r="AJ28">
         <f t="shared" si="24"/>
@@ -4332,7 +4332,7 @@
         <v>3</v>
       </c>
       <c r="K29">
-        <v>6.4552887409442913E-2</v>
+        <v>6.455288740944326E-2</v>
       </c>
       <c r="L29">
         <v>2</v>
@@ -4354,7 +4354,7 @@
       </c>
       <c r="Q29">
         <f t="shared" si="5"/>
-        <v>4.0000000000000036E-2</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="R29">
         <f t="shared" si="6"/>
@@ -4370,7 +4370,7 @@
       </c>
       <c r="U29">
         <f t="shared" si="9"/>
-        <v>3.999999999999998E-2</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="V29">
         <f t="shared" si="10"/>
@@ -4406,7 +4406,7 @@
       </c>
       <c r="AD29">
         <f t="shared" si="18"/>
-        <v>0.70561722982546737</v>
+        <v>0.70561722982546926</v>
       </c>
       <c r="AE29">
         <f t="shared" si="19"/>
@@ -4414,19 +4414,19 @@
       </c>
       <c r="AF29">
         <f t="shared" si="20"/>
-        <v>1.2550778580744664</v>
+        <v>1.2550778580744701</v>
       </c>
       <c r="AG29">
         <f t="shared" si="21"/>
-        <v>-0.26936058490672909</v>
+        <v>-0.26936058490672787</v>
       </c>
       <c r="AH29">
         <f t="shared" si="22"/>
-        <v>1.0458982150620553</v>
+        <v>1.0458982150620586</v>
       </c>
       <c r="AI29">
         <f t="shared" si="23"/>
-        <v>-0.25096493024936395</v>
+        <v>-0.23793323705571245</v>
       </c>
       <c r="AJ29">
         <f t="shared" si="24"/>
@@ -4461,13 +4461,13 @@
       </c>
       <c r="I30">
         <f t="shared" si="1"/>
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="J30">
         <v>3</v>
       </c>
       <c r="K30">
-        <v>3.8623296116963482E-2</v>
+        <v>3.862329611696376E-2</v>
       </c>
       <c r="L30">
         <v>2</v>
@@ -4481,15 +4481,15 @@
       </c>
       <c r="O30">
         <f t="shared" si="3"/>
-        <v>4.0000000000000036E-2</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="P30">
         <f t="shared" si="4"/>
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="Q30">
         <f t="shared" si="5"/>
-        <v>-4.0000000000000036E-2</v>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="R30">
         <f t="shared" si="6"/>
@@ -4501,11 +4501,11 @@
       </c>
       <c r="T30">
         <f t="shared" si="8"/>
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="U30">
         <f t="shared" si="9"/>
-        <v>-0.06</v>
+        <v>-4.0000000000000036E-2</v>
       </c>
       <c r="V30">
         <f t="shared" si="10"/>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="Y30">
         <f t="shared" si="13"/>
-        <v>-1.999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="Z30">
         <f t="shared" si="14"/>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="AA30">
         <f t="shared" si="15"/>
-        <v>-1.9999999999999962E-2</v>
+        <v>0</v>
       </c>
       <c r="AB30">
         <f t="shared" si="16"/>
@@ -4537,31 +4537,31 @@
       </c>
       <c r="AC30">
         <f t="shared" si="17"/>
-        <v>3.999999999999998E-2</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="AD30">
         <f t="shared" si="18"/>
-        <v>0.54946062824899899</v>
+        <v>0.54946062824900088</v>
       </c>
       <c r="AE30">
         <f t="shared" si="19"/>
-        <v>-0.11320398333026066</v>
+        <v>-0.11320398333025949</v>
       </c>
       <c r="AF30">
         <f t="shared" si="20"/>
-        <v>0.98571727316773727</v>
+        <v>0.98571727316774227</v>
       </c>
       <c r="AG30">
         <f t="shared" si="21"/>
-        <v>4.9402378813020675E-2</v>
+        <v>-1.8397478627191211E-2</v>
       </c>
       <c r="AH30">
         <f t="shared" si="22"/>
-        <v>0.79493328481269132</v>
+        <v>0.80796497800634615</v>
       </c>
       <c r="AI30">
         <f t="shared" si="23"/>
-        <v>6.7666425171273636E-2</v>
+        <v>-1.8651492225535415E-3</v>
       </c>
       <c r="AJ30">
         <f t="shared" si="24"/>
@@ -4592,7 +4592,7 @@
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="I31">
         <f t="shared" si="1"/>
@@ -4602,7 +4602,7 @@
         <v>3</v>
       </c>
       <c r="K31">
-        <v>2.4169062958259151E-2</v>
+        <v>2.4169062958259491E-2</v>
       </c>
       <c r="L31">
         <v>2</v>
@@ -4612,11 +4612,11 @@
       </c>
       <c r="N31">
         <f t="shared" si="2"/>
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="O31">
         <f t="shared" si="3"/>
-        <v>-7.999999999999996E-2</v>
+        <v>-4.0000000000000036E-2</v>
       </c>
       <c r="P31">
         <f t="shared" si="4"/>
@@ -4624,7 +4624,7 @@
       </c>
       <c r="Q31">
         <f t="shared" si="5"/>
-        <v>-6.0000000000000053E-2</v>
+        <v>-4.0000000000000036E-2</v>
       </c>
       <c r="R31">
         <f t="shared" si="6"/>
@@ -4632,7 +4632,7 @@
       </c>
       <c r="S31">
         <f t="shared" si="7"/>
-        <v>-6.0000000000000053E-2</v>
+        <v>-4.0000000000000036E-2</v>
       </c>
       <c r="T31">
         <f t="shared" si="8"/>
@@ -4648,19 +4648,19 @@
       </c>
       <c r="W31">
         <f t="shared" si="11"/>
-        <v>-1.999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="X31">
         <f t="shared" si="12"/>
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="Y31">
         <f t="shared" si="13"/>
-        <v>1.999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="Z31">
         <f t="shared" si="14"/>
-        <v>0.30000000000000004</v>
+        <v>0.32</v>
       </c>
       <c r="AA31">
         <f t="shared" si="15"/>
@@ -4668,39 +4668,39 @@
       </c>
       <c r="AB31">
         <f t="shared" si="16"/>
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="AC31">
         <f t="shared" si="17"/>
-        <v>-0.06</v>
+        <v>-4.0000000000000036E-2</v>
       </c>
       <c r="AD31">
         <f t="shared" si="18"/>
-        <v>0.43625664491873833</v>
+        <v>0.43625664491874139</v>
       </c>
       <c r="AE31">
         <f t="shared" si="19"/>
-        <v>0.16260636214328134</v>
+        <v>9.4806504703068284E-2</v>
       </c>
       <c r="AF31">
         <f t="shared" si="20"/>
-        <v>1.0351196519807579</v>
+        <v>0.96731979454055106</v>
       </c>
       <c r="AG31">
         <f t="shared" si="21"/>
-        <v>0.34404482404883319</v>
+        <v>0.34404482404883152</v>
       </c>
       <c r="AH31">
         <f t="shared" si="22"/>
-        <v>0.86259970998396496</v>
+        <v>0.8060998287837926</v>
       </c>
       <c r="AI31">
         <f t="shared" si="23"/>
-        <v>0.34719369004199219</v>
+        <v>0.3243869113794684</v>
       </c>
       <c r="AJ31">
         <f t="shared" si="24"/>
-        <v>93.75</v>
+        <v>96.774193548387103</v>
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.2">
@@ -4717,7 +4717,7 @@
         <v>52</v>
       </c>
       <c r="E32">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="F32">
         <v>1211</v>
@@ -4737,7 +4737,7 @@
         <v>3</v>
       </c>
       <c r="K32">
-        <v>4.6055991394085317E-2</v>
+        <v>3.603239185276514E-2</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -4747,27 +4747,27 @@
       </c>
       <c r="N32">
         <f t="shared" si="2"/>
-        <v>0.56000000000000005</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="O32">
         <f t="shared" si="3"/>
-        <v>1.9999999999999907E-2</v>
+        <v>0</v>
       </c>
       <c r="P32">
         <f t="shared" si="4"/>
-        <v>1.1399999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="Q32">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="R32">
         <f t="shared" si="6"/>
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="S32">
         <f t="shared" si="7"/>
-        <v>2.0000000000000018E-2</v>
+        <v>0</v>
       </c>
       <c r="T32">
         <f t="shared" si="8"/>
@@ -4779,11 +4779,11 @@
       </c>
       <c r="V32">
         <f t="shared" si="10"/>
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="W32">
         <f t="shared" si="11"/>
-        <v>1.999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="X32">
         <f t="shared" si="12"/>
@@ -4795,11 +4795,11 @@
       </c>
       <c r="Z32">
         <f t="shared" si="14"/>
-        <v>0.30000000000000004</v>
+        <v>0.32</v>
       </c>
       <c r="AA32">
         <f t="shared" si="15"/>
-        <v>1.9999999999999962E-2</v>
+        <v>0</v>
       </c>
       <c r="AB32">
         <f t="shared" si="16"/>
@@ -4811,31 +4811,31 @@
       </c>
       <c r="AD32">
         <f t="shared" si="18"/>
-        <v>0.59886300706201967</v>
+        <v>0.53106314962180967</v>
       </c>
       <c r="AE32">
         <f t="shared" si="19"/>
-        <v>0.18143846190555191</v>
+        <v>0.24923831934576313</v>
       </c>
       <c r="AF32">
         <f t="shared" si="20"/>
-        <v>1.3791644760295911</v>
+        <v>1.3113646185893826</v>
       </c>
       <c r="AG32">
         <f t="shared" si="21"/>
-        <v>0.15397516042194548</v>
+        <v>0.22177501786215625</v>
       </c>
       <c r="AH32">
         <f t="shared" si="22"/>
-        <v>1.2097934000259571</v>
+        <v>1.130486740163261</v>
       </c>
       <c r="AI32">
         <f t="shared" si="23"/>
-        <v>0.13506593019468904</v>
+        <v>0.21437259005738718</v>
       </c>
       <c r="AJ32">
         <f t="shared" si="24"/>
-        <v>107.14285714285714</v>
+        <v>103.44827586206897</v>
       </c>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.2">
@@ -4872,7 +4872,7 @@
         <v>3</v>
       </c>
       <c r="K33">
-        <v>7.9560120641688881E-2</v>
+        <v>7.9560120641689144E-2</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -4946,27 +4946,27 @@
       </c>
       <c r="AD33">
         <f t="shared" si="18"/>
-        <v>0.78030146896757158</v>
+        <v>0.7803014689675728</v>
       </c>
       <c r="AE33">
         <f t="shared" si="19"/>
-        <v>-2.7463301483606428E-2</v>
+        <v>-2.746330148360665E-2</v>
       </c>
       <c r="AF33">
         <f t="shared" si="20"/>
-        <v>1.5331396364515366</v>
+        <v>1.5331396364515388</v>
       </c>
       <c r="AG33">
         <f t="shared" si="21"/>
-        <v>0.13674702427902918</v>
+        <v>0.13674702427902874</v>
       </c>
       <c r="AH33">
         <f t="shared" si="22"/>
-        <v>1.3448593302206462</v>
+        <v>1.3448593302206482</v>
       </c>
       <c r="AI33">
         <f t="shared" si="23"/>
-        <v>0.17321945226168634</v>
+        <v>0.17321945226168589</v>
       </c>
       <c r="AJ33">
         <f t="shared" si="24"/>
@@ -5007,7 +5007,7 @@
         <v>3</v>
       </c>
       <c r="K34">
-        <v>7.3837463694278169E-2</v>
+        <v>7.3837463694278377E-2</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -5081,15 +5081,15 @@
       </c>
       <c r="AD34">
         <f t="shared" si="18"/>
-        <v>0.75283816748396515</v>
+        <v>0.75283816748396615</v>
       </c>
       <c r="AE34">
         <f t="shared" si="19"/>
-        <v>0.1642103257626355</v>
+        <v>0.16421032576263528</v>
       </c>
       <c r="AF34">
         <f t="shared" si="20"/>
-        <v>1.6698866607305658</v>
+        <v>1.6698866607305676</v>
       </c>
       <c r="AG34">
         <f t="shared" si="21"/>
@@ -5097,11 +5097,11 @@
       </c>
       <c r="AH34">
         <f t="shared" si="22"/>
-        <v>1.5180787824823325</v>
+        <v>1.5180787824823341</v>
       </c>
       <c r="AI34">
         <f t="shared" si="23"/>
-        <v>7.8713899651799535E-2</v>
+        <v>7.8713899651799757E-2</v>
       </c>
       <c r="AJ34">
         <f t="shared" si="24"/>
@@ -5142,7 +5142,7 @@
         <v>3</v>
       </c>
       <c r="K35">
-        <v>0.11177099569450311</v>
+        <v>0.1117709956945033</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -5216,15 +5216,15 @@
       </c>
       <c r="AD35">
         <f t="shared" si="18"/>
-        <v>0.91704849324660065</v>
+        <v>0.91704849324660143</v>
       </c>
       <c r="AE35">
         <f t="shared" si="19"/>
-        <v>-0.10956088978833844</v>
+        <v>-0.10956088978833833</v>
       </c>
       <c r="AF35">
         <f t="shared" si="20"/>
-        <v>1.7245360967048629</v>
+        <v>1.7245360967048646</v>
       </c>
       <c r="AG35">
         <f t="shared" si="21"/>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="AH35">
         <f t="shared" si="22"/>
-        <v>1.5967926821341321</v>
+        <v>1.5967926821341338</v>
       </c>
       <c r="AI35">
         <f t="shared" si="23"/>
@@ -5277,7 +5277,7 @@
         <v>3</v>
       </c>
       <c r="K36">
-        <v>8.5464270892118277E-2</v>
+        <v>8.5464270892118485E-2</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="AD36">
         <f t="shared" si="18"/>
-        <v>0.8074876034582622</v>
+        <v>0.80748760345826309</v>
       </c>
       <c r="AE36">
         <f t="shared" si="19"/>
@@ -5359,7 +5359,7 @@
       </c>
       <c r="AF36">
         <f t="shared" si="20"/>
-        <v>1.6902419568447065</v>
+        <v>1.6902419568447082</v>
       </c>
       <c r="AG36">
         <f t="shared" si="21"/>
@@ -5367,11 +5367,11 @@
       </c>
       <c r="AH36">
         <f t="shared" si="22"/>
-        <v>1.5945678838157606</v>
+        <v>1.5945678838157624</v>
       </c>
       <c r="AI36">
         <f t="shared" si="23"/>
-        <v>-3.9493738481976237E-2</v>
+        <v>-3.9493738481976459E-2</v>
       </c>
       <c r="AJ36">
         <f t="shared" si="24"/>
@@ -5412,7 +5412,7 @@
         <v>3</v>
       </c>
       <c r="K37">
-        <v>0.10309201957313729</v>
+        <v>0.1030920195731375</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -5486,7 +5486,7 @@
       </c>
       <c r="AD37">
         <f t="shared" si="18"/>
-        <v>0.88275435338644437</v>
+        <v>0.88275435338644526</v>
       </c>
       <c r="AE37">
         <f t="shared" si="19"/>
@@ -5494,19 +5494,19 @@
       </c>
       <c r="AF37">
         <f t="shared" si="20"/>
-        <v>1.6794800769604872</v>
+        <v>1.679480076960489</v>
       </c>
       <c r="AG37">
         <f t="shared" si="21"/>
-        <v>-0.13201410920947199</v>
+        <v>-0.13201410920947154</v>
       </c>
       <c r="AH37">
         <f t="shared" si="22"/>
-        <v>1.5550741453337844</v>
+        <v>1.555074145333786</v>
       </c>
       <c r="AI37">
         <f t="shared" si="23"/>
-        <v>-0.17340810269894957</v>
+        <v>-0.17340810269894913</v>
       </c>
       <c r="AJ37">
         <f t="shared" si="24"/>
@@ -5547,7 +5547,7 @@
         <v>2</v>
       </c>
       <c r="K38">
-        <v>8.3098302668360047E-2</v>
+        <v>8.3098302668360283E-2</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -5621,27 +5621,27 @@
       </c>
       <c r="AD38">
         <f t="shared" si="18"/>
-        <v>0.79672572357404292</v>
+        <v>0.79672572357404381</v>
       </c>
       <c r="AE38">
         <f t="shared" si="19"/>
-        <v>-4.5985479397070539E-2</v>
+        <v>-4.5985479397070317E-2</v>
       </c>
       <c r="AF38">
         <f t="shared" si="20"/>
-        <v>1.5474659677510152</v>
+        <v>1.5474659677510174</v>
       </c>
       <c r="AG38" s="3">
         <f t="shared" si="21"/>
-        <v>-0.79672572357404281</v>
+        <v>-0.79672572357404392</v>
       </c>
       <c r="AH38">
         <f t="shared" si="22"/>
-        <v>1.3816660426348348</v>
+        <v>1.3816660426348368</v>
       </c>
       <c r="AI38" s="3">
         <f t="shared" si="23"/>
-        <v>-1.1891685441279187</v>
+        <v>-1.1891685441279205</v>
       </c>
       <c r="AJ38">
         <f t="shared" si="24"/>
@@ -5682,7 +5682,7 @@
         <v>1</v>
       </c>
       <c r="K39">
-        <v>7.341016720481966E-2</v>
+        <v>7.3410167204819882E-2</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -5756,27 +5756,27 @@
       </c>
       <c r="AD39">
         <f t="shared" si="18"/>
-        <v>0.75074024417697238</v>
+        <v>0.75074024417697349</v>
       </c>
       <c r="AE39" s="3">
         <f t="shared" si="19"/>
-        <v>-0.75074024417697238</v>
+        <v>-0.75074024417697349</v>
       </c>
       <c r="AF39" s="3">
         <f t="shared" si="20"/>
-        <v>0.75074024417697238</v>
+        <v>0.75074024417697349</v>
       </c>
       <c r="AG39" s="3">
         <f t="shared" si="21"/>
-        <v>2.4256907649773063E-2</v>
+        <v>2.4256907649772619E-2</v>
       </c>
       <c r="AH39" s="3">
         <f t="shared" si="22"/>
-        <v>0.192497498506916</v>
+        <v>0.19249749850691628</v>
       </c>
       <c r="AI39" s="3">
         <f t="shared" si="23"/>
-        <v>4.2022862206843592E-3</v>
+        <v>4.2022862206842759E-3</v>
       </c>
       <c r="AJ39">
         <f t="shared" si="24"/>
@@ -5892,23 +5892,23 @@
       </c>
       <c r="AE40" s="3">
         <f t="shared" si="19"/>
-        <v>0.77499715182674545</v>
+        <v>0.77499715182674611</v>
       </c>
       <c r="AF40" s="3">
         <f t="shared" si="20"/>
-        <v>0.77499715182674545</v>
+        <v>0.77499715182674611</v>
       </c>
       <c r="AG40" s="3">
         <f t="shared" si="21"/>
-        <v>0.82791506372214829</v>
+        <v>0.82791506372214896</v>
       </c>
       <c r="AH40" s="3">
         <f t="shared" si="22"/>
-        <v>0.19669978472760036</v>
+        <v>0.19669978472760055</v>
       </c>
       <c r="AI40" s="3">
         <f t="shared" si="23"/>
-        <v>1.2093635622451135</v>
+        <v>1.2093635622451144</v>
       </c>
       <c r="AJ40" s="3">
         <f t="shared" si="24"/>
@@ -5949,7 +5949,7 @@
         <v>3</v>
       </c>
       <c r="K41">
-        <v>7.8436049909851785E-2</v>
+        <v>7.8436049909851938E-2</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -6023,7 +6023,7 @@
       </c>
       <c r="AD41">
         <f t="shared" si="18"/>
-        <v>0.77499715182674545</v>
+        <v>0.77499715182674611</v>
       </c>
       <c r="AE41">
         <f t="shared" si="19"/>
@@ -6031,7 +6031,7 @@
       </c>
       <c r="AF41">
         <f t="shared" si="20"/>
-        <v>1.6029122155488937</v>
+        <v>1.6029122155488951</v>
       </c>
       <c r="AG41">
         <f t="shared" si="21"/>
@@ -6039,11 +6039,11 @@
       </c>
       <c r="AH41">
         <f t="shared" si="22"/>
-        <v>1.406063346972714</v>
+        <v>1.4060633469727151</v>
       </c>
       <c r="AI41">
         <f t="shared" si="23"/>
-        <v>0.133007812922465</v>
+        <v>0.13300781292246522</v>
       </c>
       <c r="AJ41">
         <f t="shared" si="24"/>
@@ -6084,7 +6084,7 @@
         <v>3</v>
       </c>
       <c r="K42">
-        <v>9.0060040704654912E-2</v>
+        <v>9.0060040704655064E-2</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -6158,27 +6158,27 @@
       </c>
       <c r="AD42">
         <f t="shared" si="18"/>
-        <v>0.82791506372214829</v>
+        <v>0.82791506372214896</v>
       </c>
       <c r="AE42">
         <f t="shared" si="19"/>
-        <v>6.3667252424969289E-3</v>
+        <v>6.3667252424968179E-3</v>
       </c>
       <c r="AF42">
         <f t="shared" si="20"/>
-        <v>1.6621968526867934</v>
+        <v>1.6621968526867947</v>
       </c>
       <c r="AG42">
         <f t="shared" si="21"/>
-        <v>3.3887165781476991E-2</v>
+        <v>3.3887165781476547E-2</v>
       </c>
       <c r="AH42">
         <f t="shared" si="22"/>
-        <v>1.539071159895179</v>
+        <v>1.5390711598951803</v>
       </c>
       <c r="AI42">
         <f t="shared" si="23"/>
-        <v>6.1008102810736542E-2</v>
+        <v>6.1008102810735876E-2</v>
       </c>
       <c r="AJ42">
         <f t="shared" si="24"/>
@@ -6219,7 +6219,7 @@
         <v>3</v>
       </c>
       <c r="K43">
-        <v>9.1520762670240188E-2</v>
+        <v>9.1520762670240313E-2</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -6293,23 +6293,23 @@
       </c>
       <c r="AD43">
         <f t="shared" si="18"/>
-        <v>0.83428178896464522</v>
+        <v>0.83428178896464578</v>
       </c>
       <c r="AE43">
         <f t="shared" si="19"/>
-        <v>2.7520440538980062E-2</v>
+        <v>2.7520440538979729E-2</v>
       </c>
       <c r="AF43">
         <f t="shared" si="20"/>
-        <v>1.6960840184682704</v>
+        <v>1.6960840184682713</v>
       </c>
       <c r="AG43">
         <f t="shared" si="21"/>
-        <v>4.9548224995146439E-2</v>
+        <v>4.9548224995146217E-2</v>
       </c>
       <c r="AH43">
         <f t="shared" si="22"/>
-        <v>1.6000792627059155</v>
+        <v>1.6000792627059162</v>
       </c>
       <c r="AI43">
         <f t="shared" si="23"/>
@@ -6354,7 +6354,7 @@
         <v>3</v>
       </c>
       <c r="K44">
-        <v>9.7991858170438678E-2</v>
+        <v>9.7991858170438734E-2</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -6428,23 +6428,23 @@
       </c>
       <c r="AD44">
         <f t="shared" si="18"/>
-        <v>0.86180222950362528</v>
+        <v>0.86180222950362551</v>
       </c>
       <c r="AE44">
         <f t="shared" si="19"/>
-        <v>2.2027784456166266E-2</v>
+        <v>2.2027784456166377E-2</v>
       </c>
       <c r="AF44">
         <f t="shared" si="20"/>
-        <v>1.7456322434634168</v>
+        <v>1.7456322434634175</v>
       </c>
       <c r="AG44">
         <f t="shared" si="21"/>
-        <v>-4.3239059982113526E-2</v>
+        <v>-4.3239059982113304E-2</v>
       </c>
       <c r="AH44">
         <f t="shared" si="22"/>
-        <v>1.6784925417917469</v>
+        <v>1.6784925417917476</v>
       </c>
       <c r="AI44">
         <f t="shared" si="23"/>
@@ -6489,7 +6489,7 @@
         <v>3</v>
       </c>
       <c r="K45">
-        <v>0.10335795921694781</v>
+        <v>0.1033579592169479</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -6563,27 +6563,27 @@
       </c>
       <c r="AD45">
         <f t="shared" si="18"/>
-        <v>0.88383001395979155</v>
+        <v>0.88383001395979188</v>
       </c>
       <c r="AE45">
         <f t="shared" si="19"/>
-        <v>-6.5266844438279903E-2</v>
+        <v>-6.526684443827957E-2</v>
       </c>
       <c r="AF45">
         <f t="shared" si="20"/>
-        <v>1.7023931834813033</v>
+        <v>1.7023931834813042</v>
       </c>
       <c r="AG45">
         <f t="shared" si="21"/>
-        <v>-3.0065593893302545E-2</v>
+        <v>-3.0065593893301878E-2</v>
       </c>
       <c r="AH45">
         <f t="shared" si="22"/>
-        <v>1.6060313051710409</v>
+        <v>1.6060313051710415</v>
       </c>
       <c r="AI45">
         <f t="shared" si="23"/>
-        <v>-8.5733496454676761E-2</v>
+        <v>-8.5733496454675873E-2</v>
       </c>
       <c r="AJ45">
         <f t="shared" si="24"/>
@@ -6624,7 +6624,7 @@
         <v>3</v>
       </c>
       <c r="K46">
-        <v>8.7938914220469067E-2</v>
+        <v>8.7938914220469233E-2</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -6698,27 +6698,27 @@
       </c>
       <c r="AD46">
         <f t="shared" si="18"/>
-        <v>0.81856316952151165</v>
+        <v>0.81856316952151231</v>
       </c>
       <c r="AE46">
         <f t="shared" si="19"/>
-        <v>3.520125054497758E-2</v>
+        <v>3.5201250544977691E-2</v>
       </c>
       <c r="AF46">
         <f t="shared" si="20"/>
-        <v>1.6723275895880008</v>
+        <v>1.6723275895880023</v>
       </c>
       <c r="AG46">
         <f t="shared" si="21"/>
-        <v>2.1085154063517964E-2</v>
+        <v>2.1085154063517519E-2</v>
       </c>
       <c r="AH46">
         <f t="shared" si="22"/>
-        <v>1.5202978087163641</v>
+        <v>1.5202978087163657</v>
       </c>
       <c r="AI46">
         <f t="shared" si="23"/>
-        <v>-6.0459236602985689E-2</v>
+        <v>-6.0459236602986355E-2</v>
       </c>
       <c r="AJ46">
         <f t="shared" si="24"/>
@@ -6759,7 +6759,7 @@
         <v>3</v>
       </c>
       <c r="K47">
-        <v>9.6075314812965482E-2</v>
+        <v>9.6075314812965662E-2</v>
       </c>
       <c r="L47">
         <v>1</v>
@@ -6833,27 +6833,27 @@
       </c>
       <c r="AD47">
         <f t="shared" si="18"/>
-        <v>0.85376442006648923</v>
+        <v>0.85376442006649</v>
       </c>
       <c r="AE47">
         <f t="shared" si="19"/>
-        <v>-1.4116096481459728E-2</v>
+        <v>-1.4116096481460061E-2</v>
       </c>
       <c r="AF47">
         <f t="shared" si="20"/>
-        <v>1.6934127436515187</v>
+        <v>1.6934127436515198</v>
       </c>
       <c r="AG47">
         <f t="shared" si="21"/>
-        <v>-0.13296467102330323</v>
+        <v>-0.13296467102330434</v>
       </c>
       <c r="AH47">
         <f t="shared" si="22"/>
-        <v>1.4598385721133784</v>
+        <v>1.4598385721133793</v>
       </c>
       <c r="AI47">
         <f t="shared" si="23"/>
-        <v>-0.13742495124200937</v>
+        <v>-0.13742495124201026</v>
       </c>
       <c r="AJ47">
         <f t="shared" si="24"/>
@@ -6894,7 +6894,7 @@
         <v>3</v>
       </c>
       <c r="K48">
-        <v>9.2762554353123097E-2</v>
+        <v>9.2762554353123222E-2</v>
       </c>
       <c r="L48">
         <v>1</v>
@@ -6968,11 +6968,11 @@
       </c>
       <c r="AD48">
         <f t="shared" si="18"/>
-        <v>0.8396483235850295</v>
+        <v>0.83964832358502994</v>
       </c>
       <c r="AE48">
         <f t="shared" si="19"/>
-        <v>-0.11884857454184339</v>
+        <v>-0.11884857454184439</v>
       </c>
       <c r="AF48">
         <f t="shared" si="20"/>
@@ -6980,7 +6980,7 @@
       </c>
       <c r="AG48">
         <f t="shared" si="21"/>
-        <v>-0.27442522041789741</v>
+        <v>-0.2744252204178963</v>
       </c>
       <c r="AH48">
         <f t="shared" si="22"/>
@@ -6988,7 +6988,7 @@
       </c>
       <c r="AI48">
         <f t="shared" si="23"/>
-        <v>-0.33316527301727827</v>
+        <v>-0.33316527301727739</v>
       </c>
       <c r="AJ48">
         <f t="shared" si="24"/>
@@ -7029,7 +7029,7 @@
         <v>3</v>
       </c>
       <c r="K49">
-        <v>6.7462493789372288E-2</v>
+        <v>6.7462493789372191E-2</v>
       </c>
       <c r="L49">
         <v>2</v>
@@ -7103,27 +7103,27 @@
       </c>
       <c r="AD49">
         <f t="shared" si="18"/>
-        <v>0.72079974904318611</v>
+        <v>0.72079974904318556</v>
       </c>
       <c r="AE49">
         <f t="shared" si="19"/>
-        <v>-0.15557664587605413</v>
+        <v>-0.15557664587605202</v>
       </c>
       <c r="AF49">
         <f t="shared" si="20"/>
-        <v>1.2860228522103181</v>
+        <v>1.2860228522103192</v>
       </c>
       <c r="AG49">
         <f t="shared" si="21"/>
-        <v>-0.16035951193690079</v>
+        <v>-0.16035951193689968</v>
       </c>
       <c r="AH49">
         <f t="shared" si="22"/>
-        <v>0.98924834785409077</v>
+        <v>0.98924834785409166</v>
       </c>
       <c r="AI49">
         <f t="shared" si="23"/>
-        <v>-9.5864744462489715E-2</v>
+        <v>-9.5864744462488827E-2</v>
       </c>
       <c r="AJ49">
         <f t="shared" si="24"/>
@@ -7164,7 +7164,7 @@
         <v>3</v>
       </c>
       <c r="K50">
-        <v>4.0919141525310607E-2</v>
+        <v>4.0919141525310843E-2</v>
       </c>
       <c r="L50">
         <v>2</v>
@@ -7238,27 +7238,27 @@
       </c>
       <c r="AD50">
         <f t="shared" si="18"/>
-        <v>0.56522310316713198</v>
+        <v>0.56522310316713353</v>
       </c>
       <c r="AE50">
         <f t="shared" si="19"/>
-        <v>-4.7828660608466578E-3</v>
+        <v>-4.782866060847657E-3</v>
       </c>
       <c r="AF50">
         <f t="shared" si="20"/>
-        <v>1.1256633402734173</v>
+        <v>1.1256633402734195</v>
       </c>
       <c r="AG50">
         <f t="shared" si="21"/>
-        <v>0.21733702780891551</v>
+        <v>0.2173370278089144</v>
       </c>
       <c r="AH50">
         <f t="shared" si="22"/>
-        <v>0.89338360339160106</v>
+        <v>0.89338360339160283</v>
       </c>
       <c r="AI50">
         <f t="shared" si="23"/>
-        <v>0.28468689492623478</v>
+        <v>0.28468689492623411</v>
       </c>
       <c r="AJ50">
         <f t="shared" si="24"/>
@@ -7299,7 +7299,7 @@
         <v>3</v>
       </c>
       <c r="K51">
-        <v>4.021505703234237E-2</v>
+        <v>4.0215057032342461E-2</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -7373,27 +7373,27 @@
       </c>
       <c r="AD51">
         <f t="shared" si="18"/>
-        <v>0.56044023710628532</v>
+        <v>0.56044023710628588</v>
       </c>
       <c r="AE51">
         <f t="shared" si="19"/>
-        <v>0.22211989386976216</v>
+        <v>0.22211989386976205</v>
       </c>
       <c r="AF51">
         <f t="shared" si="20"/>
-        <v>1.3430003680823328</v>
+        <v>1.3430003680823339</v>
       </c>
       <c r="AG51">
         <f t="shared" si="21"/>
-        <v>0.19772394116890202</v>
+        <v>0.1977239411689018</v>
       </c>
       <c r="AH51">
         <f t="shared" si="22"/>
-        <v>1.1780704983178358</v>
+        <v>1.1780704983178369</v>
       </c>
       <c r="AI51">
         <f t="shared" si="23"/>
-        <v>0.12762806884422773</v>
+        <v>0.12762806884422728</v>
       </c>
       <c r="AJ51">
         <f t="shared" si="24"/>
@@ -7434,7 +7434,7 @@
         <v>3</v>
       </c>
       <c r="K52">
-        <v>8.0041516462204698E-2</v>
+        <v>8.0041516462204809E-2</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -7508,27 +7508,27 @@
       </c>
       <c r="AD52">
         <f t="shared" si="18"/>
-        <v>0.78256013097604749</v>
+        <v>0.78256013097604793</v>
       </c>
       <c r="AE52">
         <f t="shared" si="19"/>
-        <v>-2.4395952700860257E-2</v>
+        <v>-2.4395952700860035E-2</v>
       </c>
       <c r="AF52">
         <f t="shared" si="20"/>
-        <v>1.5407243092512348</v>
+        <v>1.5407243092512357</v>
       </c>
       <c r="AG52">
         <f t="shared" si="21"/>
-        <v>3.1160474535167015E-2</v>
+        <v>3.1160474535167459E-2</v>
       </c>
       <c r="AH52">
         <f t="shared" si="22"/>
-        <v>1.3056985671620636</v>
+        <v>1.3056985671620642</v>
       </c>
       <c r="AI52">
         <f t="shared" si="23"/>
-        <v>9.776998979008078E-2</v>
+        <v>9.7769989790081224E-2</v>
       </c>
       <c r="AJ52">
         <f t="shared" si="24"/>
@@ -7569,7 +7569,7 @@
         <v>3</v>
       </c>
       <c r="K53">
-        <v>7.4928497621832305E-2</v>
+        <v>7.4928497621832429E-2</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -7643,27 +7643,27 @@
       </c>
       <c r="AD53">
         <f t="shared" si="18"/>
-        <v>0.75816417827518723</v>
+        <v>0.75816417827518789</v>
       </c>
       <c r="AE53">
         <f t="shared" si="19"/>
-        <v>5.5556427236027495E-2</v>
+        <v>5.5556427236027273E-2</v>
       </c>
       <c r="AF53">
         <f t="shared" si="20"/>
-        <v>1.5718847837864018</v>
+        <v>1.5718847837864032</v>
       </c>
       <c r="AG53">
         <f t="shared" si="21"/>
-        <v>0.13276200526738924</v>
+        <v>0.13276200526738902</v>
       </c>
       <c r="AH53">
         <f t="shared" si="22"/>
-        <v>1.4034685569521443</v>
+        <v>1.4034685569521455</v>
       </c>
       <c r="AI53">
         <f t="shared" si="23"/>
-        <v>0.14621034218766571</v>
+        <v>0.14621034218766549</v>
       </c>
       <c r="AJ53">
         <f t="shared" si="24"/>
@@ -7704,7 +7704,7 @@
         <v>3</v>
       </c>
       <c r="K54">
-        <v>8.6851950669116385E-2</v>
+        <v>8.6851950669116482E-2</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -7778,23 +7778,23 @@
       </c>
       <c r="AD54">
         <f t="shared" si="18"/>
-        <v>0.81372060551121472</v>
+        <v>0.81372060551121517</v>
       </c>
       <c r="AE54">
         <f t="shared" si="19"/>
-        <v>7.7205578031361743E-2</v>
+        <v>7.7205578031361854E-2</v>
       </c>
       <c r="AF54">
         <f t="shared" si="20"/>
-        <v>1.7046467890537911</v>
+        <v>1.7046467890537922</v>
       </c>
       <c r="AG54">
         <f t="shared" si="21"/>
-        <v>-4.7605364456086541E-2</v>
+        <v>-4.7605364456086763E-2</v>
       </c>
       <c r="AH54">
         <f t="shared" si="22"/>
-        <v>1.5496788991398101</v>
+        <v>1.5496788991398109</v>
       </c>
       <c r="AI54">
         <f t="shared" si="23"/>
@@ -7839,7 +7839,7 @@
         <v>3</v>
       </c>
       <c r="K55">
-        <v>0.10512249334476929</v>
+        <v>0.1051224933447694</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -7913,27 +7913,27 @@
       </c>
       <c r="AD55">
         <f t="shared" si="18"/>
-        <v>0.89092618354257647</v>
+        <v>0.89092618354257702</v>
       </c>
       <c r="AE55">
         <f t="shared" si="19"/>
-        <v>-0.1248109424874484</v>
+        <v>-0.12481094248744862</v>
       </c>
       <c r="AF55">
         <f t="shared" si="20"/>
-        <v>1.6570414245977045</v>
+        <v>1.6570414245977054</v>
       </c>
       <c r="AG55">
         <f t="shared" si="21"/>
-        <v>-4.9210507973661777E-2</v>
+        <v>-4.9210507973662221E-2</v>
       </c>
       <c r="AH55">
         <f t="shared" si="22"/>
-        <v>1.5342976153682448</v>
+        <v>1.5342976153682457</v>
       </c>
       <c r="AI55">
         <f t="shared" si="23"/>
-        <v>-4.5565285160797941E-2</v>
+        <v>-4.5565285160798386E-2</v>
       </c>
       <c r="AJ55">
         <f t="shared" si="24"/>
@@ -7974,7 +7974,7 @@
         <v>3</v>
       </c>
       <c r="K56">
-        <v>7.6574027679278484E-2</v>
+        <v>7.6574027679278567E-2</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -8048,15 +8048,15 @@
       </c>
       <c r="AD56">
         <f t="shared" si="18"/>
-        <v>0.76611524105512807</v>
+        <v>0.7661152410551284</v>
       </c>
       <c r="AE56">
         <f t="shared" si="19"/>
-        <v>7.5600434513786507E-2</v>
+        <v>7.5600434513786396E-2</v>
       </c>
       <c r="AF56">
         <f t="shared" si="20"/>
-        <v>1.6078309166240428</v>
+        <v>1.6078309166240432</v>
       </c>
       <c r="AG56">
         <f t="shared" si="21"/>
@@ -8064,7 +8064,7 @@
       </c>
       <c r="AH56">
         <f t="shared" si="22"/>
-        <v>1.4887323302074469</v>
+        <v>1.4887323302074473</v>
       </c>
       <c r="AI56">
         <f t="shared" si="23"/>
@@ -8109,7 +8109,7 @@
         <v>2</v>
       </c>
       <c r="K57">
-        <v>9.3243512797814523E-2</v>
+        <v>9.3243512797814579E-2</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -8177,20 +8177,20 @@
       </c>
       <c r="AD57">
         <f t="shared" si="18"/>
-        <v>0.84171567556891458</v>
+        <v>0.8417156755689148</v>
       </c>
       <c r="AE57">
         <f t="shared" si="19"/>
-        <v>-0.1270201492216656</v>
+        <v>-0.12702014922166549</v>
       </c>
       <c r="AF57">
         <f t="shared" si="20"/>
-        <v>1.5564112019161636</v>
+        <v>1.556411201916164</v>
       </c>
       <c r="AG57" s="3"/>
       <c r="AH57">
         <f t="shared" si="22"/>
-        <v>1.3896528588537174</v>
+        <v>1.3896528588537178</v>
       </c>
       <c r="AI57" s="3"/>
       <c r="AJ57">
@@ -8229,7 +8229,7 @@
         <v>1</v>
       </c>
       <c r="K58">
-        <v>6.6284127565383821E-2</v>
+        <v>6.6284127565383891E-2</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -8279,7 +8279,7 @@
       <c r="AC58" s="3"/>
       <c r="AD58">
         <f t="shared" si="18"/>
-        <v>0.71469552634724898</v>
+        <v>0.71469552634724931</v>
       </c>
       <c r="AE58" s="3"/>
       <c r="AF58" s="3"/>
